--- a/biology/Botanique/Société_d'études_scientifiques_de_l'Aude/Société_d'études_scientifiques_de_l'Aude.xlsx
+++ b/biology/Botanique/Société_d'études_scientifiques_de_l'Aude/Société_d'études_scientifiques_de_l'Aude.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27%C3%A9tudes_scientifiques_de_l%27Aude</t>
+          <t>Société_d'études_scientifiques_de_l'Aude</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société d'études scientifiques de l'Aude, ou SESA, est une société savante fondée en 1889 et dont le siège est à Carcassonne (chef-lieu du département de l'Aude).
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27%C3%A9tudes_scientifiques_de_l%27Aude</t>
+          <t>Société_d'études_scientifiques_de_l'Aude</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Société d'études scientifiques de l'Aude a été fondée en 1889 sous l'impulsion du botaniste et géologue Louis Chartier. Après une première réunion le 10 février 1889, des statuts sont élaborés et adoptés le 17 mars suivant : le premier président en est Prosper Montès[1].
-Dès sa naissance, la société va organiser conférences et excursions dans l'Aude, les départements voisins, et même à l'étranger, constituer une bibliothèque et publier, en 1890, son premier bulletin. Elle compte alors 150 membres ; en 1914, ils sont plus de 250[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Société d'études scientifiques de l'Aude a été fondée en 1889 sous l'impulsion du botaniste et géologue Louis Chartier. Après une première réunion le 10 février 1889, des statuts sont élaborés et adoptés le 17 mars suivant : le premier président en est Prosper Montès.
+Dès sa naissance, la société va organiser conférences et excursions dans l'Aude, les départements voisins, et même à l'étranger, constituer une bibliothèque et publier, en 1890, son premier bulletin. Elle compte alors 150 membres ; en 1914, ils sont plus de 250.
 La Société se distingue ainsi de son aînée, la Société des arts et sciences de Carcassonne, marquant une rupture avec la conception précédente : le nombre de ses membres n'est pas limité, les femmes sont admises.
-En 2021, elle est membre du Comité des travaux historiques et scientifiques, l'une des fondatrices de la Société botanique d'Occitanie et de la Fédération historique d'Occitanie[5],[6].
-Fin 2022, à la suite des périodes de confinement liées à la crise du COVID 19, au manque de bénévoles pour la faire fonctionner et son déménagement, l'association est mise en difficultés[7].
-Le 20 janvier 2023, à l'occasion de son assemblée générale annuelle, la SESA remercie Charles Peytavie pour les nombreuses années passées à la tête de la Société et élit une nouvelle direction avec à sa tête pour la première fois de son existence une femme : Françoise Viala[8].
+En 2021, elle est membre du Comité des travaux historiques et scientifiques, l'une des fondatrices de la Société botanique d'Occitanie et de la Fédération historique d'Occitanie,.
+Fin 2022, à la suite des périodes de confinement liées à la crise du COVID 19, au manque de bénévoles pour la faire fonctionner et son déménagement, l'association est mise en difficultés.
+Le 20 janvier 2023, à l'occasion de son assemblée générale annuelle, la SESA remercie Charles Peytavie pour les nombreuses années passées à la tête de la Société et élit une nouvelle direction avec à sa tête pour la première fois de son existence une femme : Françoise Viala.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27%C3%A9tudes_scientifiques_de_l%27Aude</t>
+          <t>Société_d'études_scientifiques_de_l'Aude</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,12 +561,14 @@
           <t>Disciplines</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La Société d'études scientifiques de l'Aude s'intéresse à tout ce qui peut décrire le territoire, c'est-à-dire les sciences humaines et les sciences et vie de la Terre et notamment les disciplines suivantes :
 Histoire et ses sciences auxiliaires (histoire de l'art, histoire littéraire, histoire de la musique, numismatique, toponymie, héraldique...) ;
 Archéologie ;
-Géographie[9] ;
+Géographie ;
 Géologie et ses sciences auxiliaires (paléontologie, minéralogie...) ;
 Botanique et ses sciences auxiliaires (lichénologie, étude des planctons...) ;
 Ethnologie;
@@ -566,7 +582,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27%C3%A9tudes_scientifiques_de_l%27Aude</t>
+          <t>Société_d'études_scientifiques_de_l'Aude</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -584,10 +600,12 @@
           <t>Bibliothèque</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle possède un riche fonds sur la région ainsi que les périodiques de nombreuses sociétés françaises et étrangères. Une permanence fonctionne tous les mercredis après-midi dans les locaux de la Société à Carcassonne, sauf en juillet, en août et le dernier mercredi de décembre. La consultation est ouverte à tous, l'emprunt est réservé aux sociétaires.
-En raison d'une nouvelle affectation des locaux de la « Maison des Associations » pour la création d'un IUT par la municipalité de Carcassonne, l'importante bibliothèque fut mise en cartons en septembre 2022 dans l'attente de lui trouver une destination[10].
+En raison d'une nouvelle affectation des locaux de la « Maison des Associations » pour la création d'un IUT par la municipalité de Carcassonne, l'importante bibliothèque fut mise en cartons en septembre 2022 dans l'attente de lui trouver une destination.
 </t>
         </is>
       </c>
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_d%27%C3%A9tudes_scientifiques_de_l%27Aude</t>
+          <t>Société_d'études_scientifiques_de_l'Aude</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,16 +636,56 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Le bulletin
-La principale publication de la Société d'études scientifiques de l'Aude est un bulletin annuel[11] qui réunit les communications présentées l'année précédente, ainsi que les comptes-rendus des réunions et excursions, notes diverses (bibliographie, découvertes, mises au point historiques...)[12].
-Le dernier bulletin publié est celui de l'année 2022 (CXXII) paru en 2023. Le bulletin CXXIII - 2023 est en cours d'édition[13],[14].
-Mémoires de la SESA
-La SESA a publié des ouvrages sur des sujets liés au département l'Aude. Entre autres :
-Gauthier Langlois, Dame Carcas, Une légende épique occitane, 2023[15].
-Marie-Rose Viala, Castelnaudary au XVIIIe siècle. Évolution de l’espace urbain, population, institutions, 2014[16].
+          <t>Le bulletin</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La principale publication de la Société d'études scientifiques de l'Aude est un bulletin annuel qui réunit les communications présentées l'année précédente, ainsi que les comptes-rendus des réunions et excursions, notes diverses (bibliographie, découvertes, mises au point historiques...).
+Le dernier bulletin publié est celui de l'année 2022 (CXXII) paru en 2023. Le bulletin CXXIII - 2023 est en cours d'édition,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Société_d'études_scientifiques_de_l'Aude</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_d%27%C3%A9tudes_scientifiques_de_l%27Aude</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mémoires de la SESA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La SESA a publié des ouvrages sur des sujets liés au département l'Aude. Entre autres :
+Gauthier Langlois, Dame Carcas, Une légende épique occitane, 2023.
+Marie-Rose Viala, Castelnaudary au XVIIIe siècle. Évolution de l’espace urbain, population, institutions, 2014.
 Archives départementales de l'Aude, Frédérik Letterlé, Dominique Baudreu, Marie-Chantal Ferriol, Jean-Pascal Fourdrin, Marie-Élise Gardel, Michel Passelac, Guy Rancoule, Carcassonne. Études archéologiques, 2009.
 Collectif, Bulletin du centenaire de la Société, 1990.
-Joseph Euzet, Histoire de Lézignan, 1988[17].
+Joseph Euzet, Histoire de Lézignan, 1988.
 Pierre et Roger Toulze, La Villa gallo-romaine d’Escarguel-Nougairol, étude du dépotoir Tibéro-Claudien, 1984.
 Maurice Nogué, Une collection de monnaie. Monnaies françaises (à l’exception des féodales) des Carolingiens à la Ve République, 1974.
 Jacques Lemoine, Histoire de la Bezole, 1970.
@@ -635,15 +693,83 @@
 Collectif, Commémoration du cinquantenaire de la SESA, mai 1939, 1940.
 Antoine Sabarthès (abbé), Histoire du clergé de l'Aude, 1939.
 André David, Monographie sur la Montagne Noire, préfacé par Emmanuel de Martonne ,1925.
-Gaston Gauthier et L. Marty, Catalogue de la Flore des Corbières, 1913.
-Prix Urbain-Gibert
-La SESA a créé en 1992 le Prix Urbain-Gibert, dédié à son ancien président et président d'honneur Urbain Gibert, « destiné à récompenser périodiquement, sur concours, des études inédites dans les domaines des sciences naturelles, des sciences physiques et des sciences humaines (archéologie, préhistoire, histoire), concernant le département de l'Aude ». Il consiste à publier aux frais de la Société un ouvrage inédit[18]. Il a récompensé les ouvrages suivants :
-Gérard Breton, L’Ambre des Corbières, SESA, Carcassonne, 2012[19].
+Gaston Gauthier et L. Marty, Catalogue de la Flore des Corbières, 1913.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Société_d'études_scientifiques_de_l'Aude</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_d%27%C3%A9tudes_scientifiques_de_l%27Aude</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prix Urbain-Gibert</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>La SESA a créé en 1992 le Prix Urbain-Gibert, dédié à son ancien président et président d'honneur Urbain Gibert, « destiné à récompenser périodiquement, sur concours, des études inédites dans les domaines des sciences naturelles, des sciences physiques et des sciences humaines (archéologie, préhistoire, histoire), concernant le département de l'Aude ». Il consiste à publier aux frais de la Société un ouvrage inédit. Il a récompensé les ouvrages suivants :
+Gérard Breton, L’Ambre des Corbières, SESA, Carcassonne, 2012.
 Marie-Christine Bailly-Maître, Marie-Élise Gardel (sous la coordination de), La pierre, le métal, l’eau et le bois : économie castrale en territoire audois (XIe – XIVe siècles), SESA, Carcassonne, 2007.
-Claude Marquié, L’Industrie textile carcassonnaise au XVIIIe siècle. Étude d’un groupe social : les marchands fabricants, SESA, Carcassonne, 1993.
-Coéditions
-La SESA a participé à l'édition de divers ouvrages :
-Collectif, Atlas de la flore patrimoniale de l'Aude, 2016, Fédération Aude Claire, Conservatoire national botanique méditerranéen de Porquerolles, Les ateliers de la nature, Société d'études scientifiques de l'Aude. Éditions Biotope[20].
+Claude Marquié, L’Industrie textile carcassonnaise au XVIIIe siècle. Étude d’un groupe social : les marchands fabricants, SESA, Carcassonne, 1993.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Société_d'études_scientifiques_de_l'Aude</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_d%27%C3%A9tudes_scientifiques_de_l%27Aude</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Coéditions</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La SESA a participé à l'édition de divers ouvrages :
+Collectif, Atlas de la flore patrimoniale de l'Aude, 2016, Fédération Aude Claire, Conservatoire national botanique méditerranéen de Porquerolles, Les ateliers de la nature, Société d'études scientifiques de l'Aude. Éditions Biotope.
 Collectif, Actes du colloque de Carcassonne, 1999, Les Audois - Armand Barbès et les hommes de 1848.
 Collectif, Actes du colloque de Carcassonne, 1997, Les Audois - Venance Dougados et son temps - André Chénier - Fabre d'Églantine.
 Rémy Cazals, Jean Vaquer, Gilbert Larguier, Dominique Cardon, Philippe Delvit, L'industrie de la laine en Languedoc, depuis la préhistoire jusqu'à nos jours, Association pour la promotion des archives en Languedoc-Roussillon, Association des amis des archives de l'Aude, Fédération audoise des œuvres laïques, Société d'études scientifiques de l'Aude, 1995,  (ISBN 2-9507610-1-1)
@@ -652,35 +778,39 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Soci%C3%A9t%C3%A9_d%27%C3%A9tudes_scientifiques_de_l%27Aude</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Société_d'études_scientifiques_de_l'Aude</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Soci%C3%A9t%C3%A9_d%27%C3%A9tudes_scientifiques_de_l%27Aude</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Membres</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Présidents
-Membres illustres et notables
-Jules Bergeron (1853-1919), géologue, études des terrains primaires qu'il décrit sous le nom de Montagne Noire et de Rouergue[22].
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Membres illustres et notables</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Jules Bergeron (1853-1919), géologue, études des terrains primaires qu'il décrit sous le nom de Montagne Noire et de Rouergue.
 Léon Carez (1854-1932), géologue et cartographe français, spécialiste des Pyrénées.
 Joachim Estrade (1857-1936), ingénieur, président de la Chambre de commerce et d'industrie de Carcassonne-Limoux-Castelnaudary.
 Rémy Cazals (né en 1942), historien, professeur d'histoire contemporaine à l'Université de Toulouse-Le Mirail.
